--- a/Document/漳县/漳县需求.xlsx
+++ b/Document/漳县/漳县需求.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>漳县祁连山需求</t>
   </si>
@@ -87,6 +87,24 @@
   </si>
   <si>
     <t xml:space="preserve">查询功能（之前搜索条件为已排到车道内车辆）（需改为从ZT_Trucks表里找同品种获取序列，知道前面有几辆车在排队即可）                </t>
+  </si>
+  <si>
+    <t>后续新增</t>
+  </si>
+  <si>
+    <t>散装强制启用电子标签（否则无法开单）</t>
+  </si>
+  <si>
+    <t>原材料车辆查询bug</t>
+  </si>
+  <si>
+    <t>包装车牌号格式化（用字母代表品种发送到PLC）</t>
+  </si>
+  <si>
+    <t>现场无试样编号提醒</t>
+  </si>
+  <si>
+    <t>熟料和空车出厂不打化验单，其它默认打印</t>
   </si>
 </sst>
 </file>
@@ -94,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -112,6 +130,56 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,6 +191,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -131,15 +238,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,60 +262,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,45 +271,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,19 +286,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,163 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,26 +508,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +540,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -540,11 +558,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,30 +605,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -595,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,137 +625,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,9 +773,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1113,10 +1128,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1205,31 +1220,71 @@
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" ht="67.5" spans="1:3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" ht="27" spans="1:3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" ht="27" spans="1:3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
